--- a/HONDURAS/Género/4 Cuadros de Educacion INE 2014.xlsx
+++ b/HONDURAS/Género/4 Cuadros de Educacion INE 2014.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Género\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED241E1F-E685-4A1E-B73D-49CB3A4D2E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="15480" windowHeight="11640"/>
+    <workbookView minimized="1" xWindow="6150" yWindow="4080" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caratula" sheetId="5" r:id="rId1"/>
@@ -23,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Caratula!$A$1:$I$7</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -324,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;L.&quot;\ #,##0_);\(&quot;L.&quot;\ #,##0\)"/>
@@ -332,7 +338,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -637,63 +643,63 @@
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="2"/>
-    <cellStyle name="Millares 2 2" xfId="3"/>
-    <cellStyle name="Millares 3" xfId="4"/>
-    <cellStyle name="Millares 3 2" xfId="5"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Millares 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Millares 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Millares 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="6"/>
-    <cellStyle name="Normal 10 2" xfId="7"/>
-    <cellStyle name="Normal 10 3" xfId="8"/>
-    <cellStyle name="Normal 10 4" xfId="9"/>
-    <cellStyle name="Normal 10 5" xfId="10"/>
-    <cellStyle name="Normal 11" xfId="11"/>
-    <cellStyle name="Normal 11 2" xfId="12"/>
-    <cellStyle name="Normal 11 3" xfId="13"/>
-    <cellStyle name="Normal 11 4" xfId="14"/>
-    <cellStyle name="Normal 11 5" xfId="15"/>
-    <cellStyle name="Normal 12" xfId="16"/>
-    <cellStyle name="Normal 12 2" xfId="17"/>
-    <cellStyle name="Normal 12 3" xfId="18"/>
-    <cellStyle name="Normal 12 4" xfId="19"/>
-    <cellStyle name="Normal 12 5" xfId="20"/>
-    <cellStyle name="Normal 13" xfId="21"/>
-    <cellStyle name="Normal 13 2" xfId="22"/>
-    <cellStyle name="Normal 13 3" xfId="23"/>
-    <cellStyle name="Normal 13 4" xfId="24"/>
-    <cellStyle name="Normal 13 5" xfId="25"/>
-    <cellStyle name="Normal 16 2" xfId="26"/>
-    <cellStyle name="Normal 16 3" xfId="27"/>
-    <cellStyle name="Normal 16 4" xfId="28"/>
-    <cellStyle name="Normal 16 5" xfId="29"/>
-    <cellStyle name="Normal 17" xfId="30"/>
-    <cellStyle name="Normal 17 2" xfId="31"/>
-    <cellStyle name="Normal 17 3" xfId="32"/>
-    <cellStyle name="Normal 17 4" xfId="33"/>
-    <cellStyle name="Normal 17 5" xfId="34"/>
-    <cellStyle name="Normal 2 2" xfId="35"/>
-    <cellStyle name="Normal 2 3" xfId="36"/>
-    <cellStyle name="Normal 2 4" xfId="37"/>
-    <cellStyle name="Normal 2 5" xfId="38"/>
-    <cellStyle name="Normal 3" xfId="39"/>
-    <cellStyle name="Normal 3 2" xfId="40"/>
-    <cellStyle name="Normal 3 3" xfId="41"/>
-    <cellStyle name="Normal 3 4" xfId="42"/>
-    <cellStyle name="Normal 3 5" xfId="43"/>
-    <cellStyle name="Normal 6 2" xfId="44"/>
-    <cellStyle name="Normal 6 3" xfId="45"/>
-    <cellStyle name="Normal 6 4" xfId="46"/>
-    <cellStyle name="Normal 6 5" xfId="47"/>
-    <cellStyle name="Normal 8" xfId="48"/>
-    <cellStyle name="Normal 8 2" xfId="49"/>
-    <cellStyle name="Normal 8 3" xfId="50"/>
-    <cellStyle name="Normal 8 4" xfId="51"/>
-    <cellStyle name="Normal 8 5" xfId="52"/>
-    <cellStyle name="Normal 9" xfId="53"/>
-    <cellStyle name="Normal 9 2" xfId="54"/>
-    <cellStyle name="Normal 9 3" xfId="55"/>
-    <cellStyle name="Normal 9 4" xfId="56"/>
-    <cellStyle name="Normal 9 5" xfId="57"/>
+    <cellStyle name="Normal 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 10 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 10 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 10 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 10 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 11" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 11 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 11 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 11 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 11 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 12" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 12 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 12 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 12 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 12 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 13" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 13 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 13 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 13 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 13 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 16 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 16 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 16 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 16 5" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 17" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 17 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 17 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 17 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 17 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 2 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 2 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 3 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 3 4" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 3 5" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 6 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 6 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 6 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 6 5" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 8" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 8 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 8 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 8 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 8 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 9" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 9 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 9 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 9 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 9 5" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,7 +731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Rectangle 1"/>
+        <xdr:cNvPr id="1025" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -809,7 +821,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -861,7 +879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -913,7 +937,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -965,7 +995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1017,7 +1053,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1069,7 +1111,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1121,7 +1169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1157,7 +1211,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet"/>
@@ -4178,7 +4232,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Portada"/>
@@ -4189,7 +4243,7 @@
       <sheetData sheetId="1">
         <row r="49">
           <cell r="A49" t="str">
-            <v>Fuente: Instituto Nacional de Estadística (INE). Encuesta Permanente de Hogares de Propósitos Múltiples, Junio 2014.</v>
+            <v>Fuente: Instituto Nacional de Estadística (INE). XLIV Encuesta Permanente de Hogares de Propósitos Múltiples, mayo 2013.</v>
           </cell>
         </row>
       </sheetData>
@@ -4199,7 +4253,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4571,7 +4625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4603,9 +4657,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4637,6 +4709,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4812,15 +4902,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4832,15 +4922,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -4851,7 +4941,7 @@
     <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
@@ -4862,7 +4952,7 @@
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4871,7 +4961,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
@@ -4888,7 +4978,7 @@
       </c>
       <c r="G3" s="72"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -4909,7 +4999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="7.5" customHeight="1">
+    <row r="5" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4918,7 +5008,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -4947,7 +5037,7 @@
         <v>7.9246360690731903</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="7.5" customHeight="1">
+    <row r="7" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4956,7 +5046,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -4967,7 +5057,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="58" t="s">
         <v>44</v>
       </c>
@@ -4996,7 +5086,7 @@
         <v>9.0668694817499027</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>35</v>
       </c>
@@ -5025,7 +5115,7 @@
         <v>10.193746220955347</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>29</v>
       </c>
@@ -5054,7 +5144,7 @@
         <v>9.225535055350548</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>30</v>
       </c>
@@ -5083,7 +5173,7 @@
         <v>8.4569100715296628</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="58" t="s">
         <v>31</v>
       </c>
@@ -5112,7 +5202,7 @@
         <v>6.1905956620265332</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5121,7 +5211,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -5132,7 +5222,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
         <v>66</v>
       </c>
@@ -5161,7 +5251,7 @@
         <v>5.6915941412986557</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
         <v>67</v>
       </c>
@@ -5190,7 +5280,7 @@
         <v>6.5592083056739874</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="s">
         <v>68</v>
       </c>
@@ -5219,7 +5309,7 @@
         <v>7.3704113556113047</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
         <v>69</v>
       </c>
@@ -5248,7 +5338,7 @@
         <v>8.4934703739212605</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="58" t="s">
         <v>70</v>
       </c>
@@ -5277,7 +5367,7 @@
         <v>11.065594002935224</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
         <v>71</v>
       </c>
@@ -5306,7 +5396,7 @@
         <v>10.595708819778055</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5315,7 +5405,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -5326,7 +5416,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
         <v>72</v>
       </c>
@@ -5355,7 +5445,7 @@
         <v>7.9367088877531566</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
         <v>73</v>
       </c>
@@ -5384,7 +5474,7 @@
         <v>9.3661343399694843</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="s">
         <v>74</v>
       </c>
@@ -5413,7 +5503,7 @@
         <v>8.9179135828720284</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
         <v>75</v>
       </c>
@@ -5442,7 +5532,7 @@
         <v>8.1798700444807899</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
         <v>76</v>
       </c>
@@ -5471,7 +5561,7 @@
         <v>7.4696911337832734</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
         <v>77</v>
       </c>
@@ -5500,7 +5590,7 @@
         <v>7.1714972587608825</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
         <v>78</v>
       </c>
@@ -5529,7 +5619,7 @@
         <v>5.4285698945794651</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5538,7 +5628,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -5549,7 +5639,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="60" t="s">
         <v>80</v>
       </c>
@@ -5578,7 +5668,7 @@
         <v>10.16476837373445</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
         <v>81</v>
       </c>
@@ -5607,7 +5697,7 @@
         <v>13.203578815388315</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="s">
         <v>82</v>
       </c>
@@ -5636,7 +5726,7 @@
         <v>10.016136244607429</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="59" t="s">
         <v>83</v>
       </c>
@@ -5665,7 +5755,7 @@
         <v>6.3451299654637046</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>84</v>
       </c>
@@ -5694,7 +5784,7 @@
         <v>6.5819942566677909</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>85</v>
       </c>
@@ -5723,7 +5813,7 @@
         <v>7.8346852371083529</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>86</v>
       </c>
@@ -5752,10 +5842,10 @@
         <v>7.396716844025863</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f>[2]Resumen!A49</f>
-        <v>Fuente: Instituto Nacional de Estadística (INE). Encuesta Permanente de Hogares de Propósitos Múltiples, Junio 2014.</v>
+        <v>Fuente: Instituto Nacional de Estadística (INE). XLIV Encuesta Permanente de Hogares de Propósitos Múltiples, mayo 2013.</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5764,7 +5854,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>88</v>
       </c>
@@ -5789,15 +5879,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -5812,7 +5902,7 @@
     <col min="15" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="52.5" customHeight="1">
+    <row r="1" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
@@ -5832,7 +5922,7 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -5850,7 +5940,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
@@ -5876,7 +5966,7 @@
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
     </row>
-    <row r="4" spans="1:16" ht="24.75" customHeight="1">
+    <row r="4" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -5924,7 +6014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5942,7 +6032,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>64</v>
       </c>
@@ -6007,7 +6097,7 @@
         <v>25.280532225623258</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -6025,7 +6115,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
         <v>32</v>
       </c>
@@ -6045,7 +6135,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>44</v>
       </c>
@@ -6110,7 +6200,7 @@
         <v>34.773050759298194</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>35</v>
       </c>
@@ -6175,7 +6265,7 @@
         <v>40.792181069958907</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>29</v>
       </c>
@@ -6240,7 +6330,7 @@
         <v>36.815533980582558</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
         <v>30</v>
       </c>
@@ -6305,7 +6395,7 @@
         <v>32.065308870560486</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
@@ -6370,7 +6460,7 @@
         <v>14.605096163233391</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -6388,7 +6478,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>2</v>
       </c>
@@ -6453,7 +6543,7 @@
         <v>20.556742433078977</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
@@ -6473,7 +6563,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>44</v>
       </c>
@@ -6538,7 +6628,7 @@
         <v>28.689431436486128</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>35</v>
       </c>
@@ -6603,7 +6693,7 @@
         <v>35.44600938967136</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>29</v>
       </c>
@@ -6668,7 +6758,7 @@
         <v>31.789638932496089</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
         <v>30</v>
       </c>
@@ -6733,7 +6823,7 @@
         <v>25.84047462096245</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
@@ -6798,7 +6888,7 @@
         <v>12.000743080066837</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -6816,7 +6906,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
@@ -6881,7 +6971,7 @@
         <v>30.149759880584337</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
         <v>32</v>
       </c>
@@ -6901,7 +6991,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>44</v>
       </c>
@@ -6966,7 +7056,7 @@
         <v>40.656110507259136</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>35</v>
       </c>
@@ -7031,7 +7121,7 @@
         <v>44.963369963369985</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
         <v>29</v>
       </c>
@@ -7096,7 +7186,7 @@
         <v>41.737125288239852</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>30</v>
       </c>
@@ -7161,7 +7251,7 @@
         <v>38.562091503267993</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="61" t="s">
         <v>31</v>
       </c>
@@ -7226,10 +7316,10 @@
         <v>17.489711934156357</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>Cuadro01!A40</f>
-        <v>Fuente: Instituto Nacional de Estadística (INE). Encuesta Permanente de Hogares de Propósitos Múltiples, Junio 2014.</v>
+        <v>Fuente: Instituto Nacional de Estadística (INE). XLIV Encuesta Permanente de Hogares de Propósitos Múltiples, mayo 2013.</v>
       </c>
     </row>
   </sheetData>
@@ -7252,14 +7342,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -7274,7 +7364,7 @@
     <col min="15" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="58.5" customHeight="1">
+    <row r="1" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>96</v>
       </c>
@@ -7294,7 +7384,7 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -7312,7 +7402,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
@@ -7338,7 +7428,7 @@
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
     </row>
-    <row r="4" spans="1:16" ht="24.75" customHeight="1">
+    <row r="4" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="70" t="s">
         <v>1</v>
@@ -7386,7 +7476,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7404,7 +7494,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>64</v>
       </c>
@@ -7469,7 +7559,7 @@
         <v>25.397214371112643</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -7487,7 +7577,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
         <v>32</v>
       </c>
@@ -7507,7 +7597,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>44</v>
       </c>
@@ -7572,7 +7662,7 @@
         <v>35.463559366472815</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>35</v>
       </c>
@@ -7637,7 +7727,7 @@
         <v>41.910173160173244</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>29</v>
       </c>
@@ -7702,7 +7792,7 @@
         <v>40.310077519379824</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
         <v>30</v>
       </c>
@@ -7767,7 +7857,7 @@
         <v>32.047230999501068</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
@@ -7832,7 +7922,7 @@
         <v>14.604970326409502</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -7850,7 +7940,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>2</v>
       </c>
@@ -7915,7 +8005,7 @@
         <v>21.06274938592956</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
@@ -7935,7 +8025,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>44</v>
       </c>
@@ -8000,7 +8090,7 @@
         <v>30.279767221452875</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>35</v>
       </c>
@@ -8065,7 +8155,7 @@
         <v>35.237556561085974</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>29</v>
       </c>
@@ -8130,7 +8220,7 @@
         <v>36.396526772793081</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
         <v>30</v>
       </c>
@@ -8195,7 +8285,7 @@
         <v>27.069956066238621</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
@@ -8260,7 +8350,7 @@
         <v>11.977812445831129</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -8278,7 +8368,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
@@ -8343,7 +8433,7 @@
         <v>29.956559010390794</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
         <v>32</v>
       </c>
@@ -8363,7 +8453,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>44</v>
       </c>
@@ -8428,7 +8518,7 @@
         <v>40.480604817801172</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>35</v>
       </c>
@@ -8493,7 +8583,7 @@
         <v>48.029045643153538</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
         <v>29</v>
       </c>
@@ -8558,7 +8648,7 @@
         <v>44.385832705350445</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>30</v>
       </c>
@@ -8623,7 +8713,7 @@
         <v>36.869679109364796</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="61" t="s">
         <v>31</v>
       </c>
@@ -8688,10 +8778,10 @@
         <v>17.627118644067757</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>Cuadro01!A40</f>
-        <v>Fuente: Instituto Nacional de Estadística (INE). Encuesta Permanente de Hogares de Propósitos Múltiples, Junio 2014.</v>
+        <v>Fuente: Instituto Nacional de Estadística (INE). XLIV Encuesta Permanente de Hogares de Propósitos Múltiples, mayo 2013.</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +8799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:V32"/>
   <sheetViews>
@@ -8717,7 +8807,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -8743,7 +8833,7 @@
     <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="63.75" customHeight="1">
+    <row r="1" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>87</v>
       </c>
@@ -8769,7 +8859,7 @@
       <c r="U1" s="77"/>
       <c r="V1" s="77"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8793,7 +8883,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
@@ -8833,7 +8923,7 @@
       <c r="U3" s="72"/>
       <c r="V3" s="72"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
@@ -8869,7 +8959,7 @@
       <c r="U4" s="72"/>
       <c r="V4" s="72"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
         <v>33</v>
@@ -8935,7 +9025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -8959,7 +9049,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
         <v>64</v>
       </c>
@@ -9048,7 +9138,7 @@
         <v>2.8825245138160263</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -9072,7 +9162,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="20"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9188,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="20"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -9187,7 +9277,7 @@
         <v>2.2263596978528555</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>35</v>
       </c>
@@ -9276,7 +9366,7 @@
         <v>2.335456475583864</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>29</v>
       </c>
@@ -9365,7 +9455,7 @@
         <v>8.9700996677740896</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>30</v>
       </c>
@@ -9454,7 +9544,7 @@
         <v>0.68870523415977991</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
         <v>31</v>
       </c>
@@ -9543,7 +9633,7 @@
         <v>3.5136066138477537</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -9567,7 +9657,7 @@
       <c r="U15" s="17"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
         <v>2</v>
       </c>
@@ -9656,7 +9746,7 @@
         <v>3.1011115203743755</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>32</v>
       </c>
@@ -9682,7 +9772,7 @@
       <c r="U17" s="23"/>
       <c r="V17" s="20"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>44</v>
       </c>
@@ -9771,7 +9861,7 @@
         <v>2.7255267492838646</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>35</v>
       </c>
@@ -9860,7 +9950,7 @@
         <v>4.9773755656108598</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>29</v>
       </c>
@@ -9949,7 +10039,7 @@
         <v>3.7854889589905376</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>30</v>
       </c>
@@ -10038,7 +10128,7 @@
         <v>1.5624999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
         <v>31</v>
       </c>
@@ -10127,7 +10217,7 @@
         <v>3.4317089910775596</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -10151,7 +10241,7 @@
       <c r="U23" s="23"/>
       <c r="V23" s="20"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
         <v>3</v>
       </c>
@@ -10240,7 +10330,7 @@
         <v>2.6799173791180286</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
         <v>32</v>
       </c>
@@ -10266,7 +10356,7 @@
       <c r="U25" s="23"/>
       <c r="V25" s="20"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
         <v>44</v>
       </c>
@@ -10355,7 +10445,7 @@
         <v>1.8022773796616005</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
         <v>35</v>
       </c>
@@ -10444,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
         <v>29</v>
       </c>
@@ -10533,7 +10623,7 @@
         <v>14.736842105263159</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
         <v>30</v>
       </c>
@@ -10622,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="49" t="s">
         <v>31</v>
       </c>
@@ -10711,13 +10801,13 @@
         <v>3.5961272475795329</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>Cuadro01!A40</f>
-        <v>Fuente: Instituto Nacional de Estadística (INE). Encuesta Permanente de Hogares de Propósitos Múltiples, Junio 2014.</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>Fuente: Instituto Nacional de Estadística (INE). XLIV Encuesta Permanente de Hogares de Propósitos Múltiples, mayo 2013.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -10752,7 +10842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:N42"/>
   <sheetViews>
@@ -10760,7 +10850,7 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="15" customWidth="1"/>
@@ -10778,7 +10868,7 @@
     <col min="14" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="109.5" customHeight="1">
+    <row r="1" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
         <v>94</v>
       </c>
@@ -10796,7 +10886,7 @@
       <c r="M1" s="79"/>
       <c r="N1" s="57"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10805,7 +10895,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>36</v>
       </c>
@@ -10826,7 +10916,7 @@
       <c r="L3" s="72"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
@@ -10845,7 +10935,7 @@
       <c r="L4" s="75"/>
       <c r="M4" s="75"/>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
@@ -10870,7 +10960,7 @@
       </c>
       <c r="M5" s="78"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
       <c r="B6" s="5" t="s">
         <v>42</v>
@@ -10909,7 +10999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -10918,7 +11008,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>64</v>
       </c>
@@ -10972,7 +11062,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -10987,7 +11077,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>32</v>
       </c>
@@ -11004,7 +11094,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
         <v>44</v>
       </c>
@@ -11058,7 +11148,7 @@
       </c>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>35</v>
       </c>
@@ -11112,7 +11202,7 @@
       </c>
       <c r="N12" s="29"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>29</v>
       </c>
@@ -11166,7 +11256,7 @@
       </c>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
         <v>30</v>
       </c>
@@ -11220,7 +11310,7 @@
       </c>
       <c r="N14" s="29"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
         <v>31</v>
       </c>
@@ -11274,7 +11364,7 @@
       </c>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="55"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -11290,7 +11380,7 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>45</v>
       </c>
@@ -11308,7 +11398,7 @@
       <c r="M17" s="64"/>
       <c r="N17" s="29"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <v>1</v>
       </c>
@@ -11362,7 +11452,7 @@
       </c>
       <c r="N18" s="29"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="51">
         <v>2</v>
       </c>
@@ -11416,7 +11506,7 @@
       </c>
       <c r="N19" s="29"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="51">
         <v>3</v>
       </c>
@@ -11470,7 +11560,7 @@
       </c>
       <c r="N20" s="29"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="51">
         <v>4</v>
       </c>
@@ -11524,7 +11614,7 @@
       </c>
       <c r="N21" s="29"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="51">
         <v>5</v>
       </c>
@@ -11578,7 +11668,7 @@
       </c>
       <c r="N22" s="29"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="51">
         <v>6</v>
       </c>
@@ -11632,7 +11722,7 @@
       </c>
       <c r="N23" s="29"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
@@ -11648,7 +11738,7 @@
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>46</v>
       </c>
@@ -11666,7 +11756,7 @@
       <c r="M25" s="64"/>
       <c r="N25" s="29"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
         <v>66</v>
       </c>
@@ -11720,7 +11810,7 @@
       </c>
       <c r="N26" s="29"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
         <v>67</v>
       </c>
@@ -11774,7 +11864,7 @@
       </c>
       <c r="N27" s="29"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="71" t="s">
         <v>68</v>
       </c>
@@ -11828,7 +11918,7 @@
       </c>
       <c r="N28" s="29"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="71" t="s">
         <v>69</v>
       </c>
@@ -11882,7 +11972,7 @@
       </c>
       <c r="N29" s="29"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="71" t="s">
         <v>70</v>
       </c>
@@ -11936,7 +12026,7 @@
       </c>
       <c r="N30" s="29"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="51" t="s">
         <v>47</v>
       </c>
@@ -11990,7 +12080,7 @@
       </c>
       <c r="N31" s="29"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
@@ -12006,7 +12096,7 @@
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>48</v>
       </c>
@@ -12024,7 +12114,7 @@
       <c r="M33" s="64"/>
       <c r="N33" s="29"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="51" t="s">
         <v>49</v>
       </c>
@@ -12078,7 +12168,7 @@
       </c>
       <c r="N34" s="29"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="51" t="s">
         <v>50</v>
       </c>
@@ -12132,7 +12222,7 @@
       </c>
       <c r="N35" s="29"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="51" t="s">
         <v>51</v>
       </c>
@@ -12186,7 +12276,7 @@
       </c>
       <c r="N36" s="29"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>52</v>
       </c>
@@ -12240,7 +12330,7 @@
       </c>
       <c r="N37" s="29"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>53</v>
       </c>
@@ -12294,7 +12384,7 @@
       </c>
       <c r="N38" s="29"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -12309,18 +12399,18 @@
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="str">
         <f>Cuadro01!A40</f>
-        <v>Fuente: Instituto Nacional de Estadística (INE). Encuesta Permanente de Hogares de Propósitos Múltiples, Junio 2014.</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>Fuente: Instituto Nacional de Estadística (INE). XLIV Encuesta Permanente de Hogares de Propósitos Múltiples, mayo 2013.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
     </row>
   </sheetData>
@@ -12348,7 +12438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -12356,7 +12446,7 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="15" customWidth="1"/>
     <col min="2" max="7" width="8.7109375" style="15" customWidth="1"/>
@@ -12365,7 +12455,7 @@
     <col min="13" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="96" customHeight="1">
+    <row r="1" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
         <v>95</v>
       </c>
@@ -12381,7 +12471,7 @@
       <c r="K1" s="80"/>
       <c r="L1" s="80"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -12391,7 +12481,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>36</v>
       </c>
@@ -12411,7 +12501,7 @@
       <c r="K3" s="75"/>
       <c r="L3" s="75"/>
     </row>
-    <row r="4" spans="1:13" ht="11.25" customHeight="1">
+    <row r="4" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="73" t="s">
         <v>56</v>
@@ -12435,7 +12525,7 @@
       </c>
       <c r="L4" s="78"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -12469,7 +12559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12479,7 +12569,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
@@ -12529,7 +12619,7 @@
       </c>
       <c r="M7" s="62"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
@@ -12542,7 +12632,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -12558,7 +12648,7 @@
       <c r="K9" s="65"/>
       <c r="L9" s="66"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
         <v>44</v>
       </c>
@@ -12608,7 +12698,7 @@
       </c>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>35</v>
       </c>
@@ -12654,7 +12744,7 @@
       </c>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>29</v>
       </c>
@@ -12700,7 +12790,7 @@
       </c>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>30</v>
       </c>
@@ -12746,7 +12836,7 @@
       </c>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="58" t="s">
         <v>31</v>
       </c>
@@ -12792,7 +12882,7 @@
       </c>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="37"/>
       <c r="C15" s="38"/>
@@ -12806,7 +12896,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -12823,7 +12913,7 @@
       <c r="L16" s="66"/>
       <c r="M16" s="38"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
         <v>1</v>
       </c>
@@ -12869,7 +12959,7 @@
       </c>
       <c r="M17" s="38"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <v>2</v>
       </c>
@@ -12915,7 +13005,7 @@
       </c>
       <c r="M18" s="38"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="58">
         <v>3</v>
       </c>
@@ -12961,7 +13051,7 @@
       </c>
       <c r="M19" s="38"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="58">
         <v>4</v>
       </c>
@@ -13007,7 +13097,7 @@
       </c>
       <c r="M20" s="38"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <v>5</v>
       </c>
@@ -13053,7 +13143,7 @@
       </c>
       <c r="M21" s="38"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <v>6</v>
       </c>
@@ -13099,7 +13189,7 @@
       </c>
       <c r="M22" s="38"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="58"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
@@ -13113,7 +13203,7 @@
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -13130,7 +13220,7 @@
       <c r="L24" s="66"/>
       <c r="M24" s="38"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <v>1</v>
       </c>
@@ -13176,7 +13266,7 @@
       </c>
       <c r="M25" s="38"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <v>2</v>
       </c>
@@ -13222,7 +13312,7 @@
       </c>
       <c r="M26" s="38"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <v>3</v>
       </c>
@@ -13268,7 +13358,7 @@
       </c>
       <c r="M27" s="38"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <v>4</v>
       </c>
@@ -13314,7 +13404,7 @@
       </c>
       <c r="M28" s="38"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="58">
         <v>5</v>
       </c>
@@ -13360,7 +13450,7 @@
       </c>
       <c r="M29" s="38"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
         <v>47</v>
       </c>
@@ -13406,7 +13496,7 @@
       </c>
       <c r="M30" s="38"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
@@ -13420,7 +13510,7 @@
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
@@ -13437,7 +13527,7 @@
       <c r="L32" s="66"/>
       <c r="M32" s="38"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="58" t="s">
         <v>49</v>
       </c>
@@ -13483,7 +13573,7 @@
       </c>
       <c r="M33" s="38"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="58" t="s">
         <v>50</v>
       </c>
@@ -13529,7 +13619,7 @@
       </c>
       <c r="M34" s="38"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="s">
         <v>51</v>
       </c>
@@ -13575,7 +13665,7 @@
       </c>
       <c r="M35" s="38"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>52</v>
       </c>
@@ -13621,7 +13711,7 @@
       </c>
       <c r="M36" s="38"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -13667,7 +13757,7 @@
       </c>
       <c r="M37" s="38"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -13681,18 +13771,18 @@
       <c r="K38" s="31"/>
       <c r="L38" s="31"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="str">
         <f>Cuadro01!A40</f>
-        <v>Fuente: Instituto Nacional de Estadística (INE). Encuesta Permanente de Hogares de Propósitos Múltiples, Junio 2014.</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>Fuente: Instituto Nacional de Estadística (INE). XLIV Encuesta Permanente de Hogares de Propósitos Múltiples, mayo 2013.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>61</v>
       </c>
